--- a/모회사_FS.xlsx
+++ b/모회사_FS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="897">
   <si>
     <t>10100</t>
   </si>
@@ -2632,18 +2632,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>201200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연결</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연결기초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>모회사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2707,14 +2695,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>201200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Beginning</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2793,6 +2773,9 @@
   <si>
     <t>Ending</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201100</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +2891,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2923,9 +2906,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3250,7 +3230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4508,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4532,7 +4514,7 @@
         <v>224</v>
       </c>
       <c r="G1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="H1" t="s">
         <v>225</v>
@@ -4542,89 +4524,89 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>857</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>858</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I3" s="14" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>862</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>874</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>875</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>876</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>877</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>878</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="B5" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="16" t="s">
-        <v>861</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>862</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>880</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16" t="s">
-        <v>864</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>865</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>881</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -4634,344 +4616,328 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>880</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="17">
+        <v>1101188547</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="18">
+        <f>ROUND(H6*0.4,)</f>
+        <v>440475419</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <f>ROUND(-G7/5,)</f>
+        <v>-88095084</v>
+      </c>
+      <c r="H8" s="7">
+        <f>-G8</f>
+        <v>88095084</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>864</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>884</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>887</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>888</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>889</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>890</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>878</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="17">
+        <v>-10140606400</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>892</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>894</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>866</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>885</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="18">
-        <v>1101188547</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>886</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="19">
-        <f>ROUND(H7*0.4,)</f>
-        <v>440475419</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16" t="s">
-        <v>864</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <f>ROUND(-G8/5,)</f>
-        <v>-88095084</v>
-      </c>
-      <c r="H9" s="8">
-        <f>-G9</f>
-        <v>88095084</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="16" t="s">
-        <v>863</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>867</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>888</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="16" t="s">
-        <v>863</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16" t="s">
-        <v>863</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>890</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16" t="s">
-        <v>864</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>891</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>892</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>882</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16" t="s">
-        <v>863</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>893</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>894</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>895</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="16" t="s">
-        <v>864</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>883</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="18">
-        <v>-10140606400</v>
-      </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16" t="s">
-        <v>864</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="16" t="s">
-        <v>863</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>898</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16" t="s">
-        <v>864</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>868</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>899</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>869</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5001,32 +4967,32 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>1101188547</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>371637726</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>247</v>
       </c>
       <c r="C4">
@@ -5034,32 +5000,32 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>19089017</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>251330743</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>252</v>
       </c>
       <c r="C7">
@@ -5067,21 +5033,21 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>793559619</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C9">
@@ -5089,10 +5055,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C10">
@@ -5100,10 +5066,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C11">
@@ -5111,10 +5077,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>261</v>
       </c>
       <c r="C12">
@@ -5122,10 +5088,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>263</v>
       </c>
       <c r="C13">
@@ -5133,10 +5099,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C14">
@@ -5144,10 +5110,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>266</v>
       </c>
       <c r="C15">
@@ -5155,10 +5121,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>268</v>
       </c>
       <c r="C16">
@@ -5166,10 +5132,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>270</v>
       </c>
       <c r="C17">
@@ -5177,10 +5143,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>272</v>
       </c>
       <c r="C18">
@@ -5188,10 +5154,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>274</v>
       </c>
       <c r="C19">
@@ -5199,10 +5165,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>276</v>
       </c>
       <c r="C20">
@@ -5210,10 +5176,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>278</v>
       </c>
       <c r="C21">
@@ -5221,10 +5187,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>280</v>
       </c>
       <c r="C22">
@@ -5232,10 +5198,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>282</v>
       </c>
       <c r="C23">
@@ -5243,10 +5209,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>284</v>
       </c>
       <c r="C24">
@@ -5254,10 +5220,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>286</v>
       </c>
       <c r="C25">
@@ -5265,10 +5231,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>288</v>
       </c>
       <c r="C26">
@@ -5276,10 +5242,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>290</v>
       </c>
       <c r="C27">
@@ -5287,10 +5253,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C28">
@@ -5298,10 +5264,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>294</v>
       </c>
       <c r="C29">
@@ -5309,10 +5275,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>296</v>
       </c>
       <c r="C30">
@@ -5320,10 +5286,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C31">
@@ -5331,10 +5297,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>300</v>
       </c>
       <c r="C32">
@@ -5342,10 +5308,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>302</v>
       </c>
       <c r="C33">
@@ -5353,10 +5319,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>304</v>
       </c>
       <c r="C34">
@@ -5364,10 +5330,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>306</v>
       </c>
       <c r="C35">
@@ -5375,10 +5341,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>308</v>
       </c>
       <c r="C36">
@@ -5386,10 +5352,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>234</v>
       </c>
       <c r="C37">
@@ -5397,10 +5363,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>311</v>
       </c>
       <c r="C38">
@@ -5408,10 +5374,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>313</v>
       </c>
       <c r="C39">
@@ -5419,10 +5385,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>315</v>
       </c>
       <c r="C40">
@@ -5430,21 +5396,21 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>-38147983</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>319</v>
       </c>
       <c r="C42">
@@ -5452,10 +5418,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>321</v>
       </c>
       <c r="C43">
@@ -5463,10 +5429,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>323</v>
       </c>
       <c r="C44">
@@ -5474,21 +5440,21 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>-69524133</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>327</v>
       </c>
       <c r="C46">
@@ -5496,10 +5462,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>329</v>
       </c>
       <c r="C47">
@@ -5507,10 +5473,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>331</v>
       </c>
       <c r="C48">
@@ -5518,10 +5484,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>333</v>
       </c>
       <c r="C49">
@@ -5529,10 +5495,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C50">
@@ -5540,32 +5506,32 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>354060404</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>288114317</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>338</v>
       </c>
       <c r="C53">
@@ -5573,10 +5539,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>340</v>
       </c>
       <c r="C54">
@@ -5584,10 +5550,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>342</v>
       </c>
       <c r="C55">
@@ -5595,10 +5561,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>344</v>
       </c>
       <c r="C56">
@@ -5606,10 +5572,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>346</v>
       </c>
       <c r="C57">
@@ -5617,10 +5583,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>348</v>
       </c>
       <c r="C58">
@@ -5628,21 +5594,21 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>41820000</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>352</v>
       </c>
       <c r="C60">
@@ -5650,21 +5616,21 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>25218622</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>355</v>
       </c>
       <c r="C62">
@@ -5672,10 +5638,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>357</v>
       </c>
       <c r="C63">
@@ -5683,10 +5649,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>359</v>
       </c>
       <c r="C64">
@@ -5694,10 +5660,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>361</v>
       </c>
       <c r="C65">
@@ -5705,10 +5671,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>363</v>
       </c>
       <c r="C66">
@@ -5716,21 +5682,21 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>-887035847</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>367</v>
       </c>
       <c r="C68">
@@ -5738,10 +5704,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C69">
@@ -5749,10 +5715,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>371</v>
       </c>
       <c r="C70">
@@ -5760,10 +5726,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>373</v>
       </c>
       <c r="C71">
@@ -5771,10 +5737,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>375</v>
       </c>
       <c r="C72">
@@ -5782,21 +5748,21 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="9">
         <v>338338606</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>379</v>
       </c>
       <c r="C74">
@@ -5804,10 +5770,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>381</v>
       </c>
       <c r="C75">
@@ -5815,10 +5781,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>383</v>
       </c>
       <c r="C76">
@@ -5826,10 +5792,10 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>385</v>
       </c>
       <c r="C77">
@@ -5837,10 +5803,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>387</v>
       </c>
       <c r="C78">
@@ -5848,10 +5814,10 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>389</v>
       </c>
       <c r="C79">
@@ -5859,10 +5825,10 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>391</v>
       </c>
       <c r="C80">
@@ -5870,10 +5836,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>393</v>
       </c>
       <c r="C81">
@@ -5881,10 +5847,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>395</v>
       </c>
       <c r="C82">
@@ -5892,10 +5858,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>397</v>
       </c>
       <c r="C83">
@@ -5903,10 +5869,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>399</v>
       </c>
       <c r="C84">
@@ -5914,10 +5880,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>401</v>
       </c>
       <c r="C85">
@@ -5925,10 +5891,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>403</v>
       </c>
       <c r="C86">
@@ -5936,10 +5902,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>405</v>
       </c>
       <c r="C87">
@@ -5947,10 +5913,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>407</v>
       </c>
       <c r="C88">
@@ -5958,10 +5924,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>409</v>
       </c>
       <c r="C89">
@@ -5969,10 +5935,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>411</v>
       </c>
       <c r="C90">
@@ -5980,10 +5946,10 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>413</v>
       </c>
       <c r="C91">
@@ -5991,10 +5957,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>415</v>
       </c>
       <c r="C92">
@@ -6002,10 +5968,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>417</v>
       </c>
       <c r="C93">
@@ -6013,10 +5979,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>419</v>
       </c>
       <c r="C94">
@@ -6024,10 +5990,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>421</v>
       </c>
       <c r="C95">
@@ -6035,21 +6001,21 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="9">
         <v>2303727457</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>424</v>
       </c>
       <c r="C97">
@@ -6057,10 +6023,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>426</v>
       </c>
       <c r="C98">
@@ -6068,32 +6034,32 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="10">
         <v>49081857</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>845</v>
       </c>
       <c r="C101">
@@ -6101,10 +6067,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>431</v>
       </c>
       <c r="C102">
@@ -6112,10 +6078,10 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>433</v>
       </c>
       <c r="C103">
@@ -6123,10 +6089,10 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>435</v>
       </c>
       <c r="C104">
@@ -6134,10 +6100,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>437</v>
       </c>
       <c r="C105">
@@ -6145,10 +6111,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>439</v>
       </c>
       <c r="C106">
@@ -6156,10 +6122,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>441</v>
       </c>
       <c r="C107">
@@ -6167,32 +6133,32 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="9">
         <v>-709461461</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="9">
         <v>116062667</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>447</v>
       </c>
       <c r="C110">
@@ -6200,21 +6166,21 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="9">
         <v>-691815072</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>451</v>
       </c>
       <c r="C112">
@@ -6222,21 +6188,21 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C113" s="10">
+      <c r="C113" s="9">
         <v>-16016763</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>455</v>
       </c>
       <c r="C114">
@@ -6244,10 +6210,10 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>457</v>
       </c>
       <c r="C115">
@@ -6255,10 +6221,10 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>459</v>
       </c>
       <c r="C116">
@@ -6266,21 +6232,21 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="9">
         <v>-5826947051</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>463</v>
       </c>
       <c r="C118">
@@ -6288,10 +6254,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>465</v>
       </c>
       <c r="C119">
@@ -6299,10 +6265,10 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>467</v>
       </c>
       <c r="C120">
@@ -6310,10 +6276,10 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>469</v>
       </c>
       <c r="C121">
@@ -6321,10 +6287,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>471</v>
       </c>
       <c r="C122">
@@ -6332,10 +6298,10 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>473</v>
       </c>
       <c r="C123">
@@ -6343,10 +6309,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>475</v>
       </c>
       <c r="C124">
@@ -6354,10 +6320,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>477</v>
       </c>
       <c r="C125">
@@ -6365,43 +6331,43 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="9">
         <v>2580365141</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="9">
         <v>10007084537</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="9">
         <v>-85499010</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>485</v>
       </c>
       <c r="C129">
@@ -6409,32 +6375,32 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="9">
         <v>170282056</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="9">
         <v>28646639</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>491</v>
       </c>
       <c r="C132">
@@ -6442,10 +6408,10 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>493</v>
       </c>
       <c r="C133">
@@ -6453,10 +6419,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>495</v>
       </c>
       <c r="C134">
@@ -6464,10 +6430,10 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>497</v>
       </c>
       <c r="C135">
@@ -6475,10 +6441,10 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>499</v>
       </c>
       <c r="C136">
@@ -6486,10 +6452,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="8" t="s">
         <v>501</v>
       </c>
       <c r="C137">
@@ -6497,21 +6463,21 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C138" s="10">
+      <c r="C138" s="9">
         <v>453608635</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>505</v>
       </c>
       <c r="C139">
@@ -6519,10 +6485,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="8" t="s">
         <v>507</v>
       </c>
       <c r="C140">
@@ -6530,10 +6496,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>509</v>
       </c>
       <c r="C141">
@@ -6541,10 +6507,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>511</v>
       </c>
       <c r="C142">
@@ -6552,10 +6518,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>513</v>
       </c>
       <c r="C143">
@@ -6563,21 +6529,21 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="9">
         <v>-453608635</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="8" t="s">
         <v>517</v>
       </c>
       <c r="C145">
@@ -6585,10 +6551,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>519</v>
       </c>
       <c r="C146">
@@ -6596,10 +6562,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="8" t="s">
         <v>521</v>
       </c>
       <c r="C147">
@@ -6607,10 +6573,10 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>523</v>
       </c>
       <c r="C148">
@@ -6618,10 +6584,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>525</v>
       </c>
       <c r="C149">
@@ -6629,10 +6595,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="8" t="s">
         <v>527</v>
       </c>
       <c r="C150">
@@ -6640,10 +6606,10 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="8" t="s">
         <v>529</v>
       </c>
       <c r="C151">
@@ -6651,10 +6617,10 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>531</v>
       </c>
       <c r="C152">
@@ -6662,10 +6628,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="8" t="s">
         <v>533</v>
       </c>
       <c r="C153">
@@ -6673,10 +6639,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="8" t="s">
         <v>535</v>
       </c>
       <c r="C154">
@@ -6684,10 +6650,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="8" t="s">
         <v>537</v>
       </c>
       <c r="C155">
@@ -6695,10 +6661,10 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>539</v>
       </c>
       <c r="C156">
@@ -6706,10 +6672,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="8" t="s">
         <v>541</v>
       </c>
       <c r="C157">
@@ -6717,43 +6683,43 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="9">
         <v>6751985480</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="9">
         <v>-354060404</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="9">
         <v>-1078587124</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="8" t="s">
         <v>549</v>
       </c>
       <c r="C161">
@@ -6761,32 +6727,32 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C162" s="9">
         <v>108100000</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C163" s="10">
+      <c r="C163" s="9">
         <v>110880000000</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="8" t="s">
         <v>555</v>
       </c>
       <c r="C164">
@@ -6794,10 +6760,10 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="8" t="s">
         <v>557</v>
       </c>
       <c r="C165">
@@ -6805,21 +6771,21 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="C166" s="10">
+      <c r="C166" s="9">
         <v>7788825</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="8" t="s">
         <v>561</v>
       </c>
       <c r="C167">
@@ -6827,21 +6793,21 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="C168" s="10">
+      <c r="C168" s="9">
         <v>2186000</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="8" t="s">
         <v>564</v>
       </c>
       <c r="C169">
@@ -6849,10 +6815,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="8" t="s">
         <v>566</v>
       </c>
       <c r="C170">
@@ -6860,10 +6826,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="8" t="s">
         <v>568</v>
       </c>
       <c r="C171">
@@ -6871,10 +6837,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="8" t="s">
         <v>570</v>
       </c>
       <c r="C172">
@@ -6882,10 +6848,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="8" t="s">
         <v>572</v>
       </c>
       <c r="C173">
@@ -6893,10 +6859,10 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="8" t="s">
         <v>574</v>
       </c>
       <c r="C174">
@@ -6904,10 +6870,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="9" t="s">
+      <c r="A175" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="8" t="s">
         <v>576</v>
       </c>
       <c r="C175">
@@ -6915,10 +6881,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="8" t="s">
         <v>578</v>
       </c>
       <c r="C176">
@@ -6926,21 +6892,21 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C177" s="10">
+      <c r="C177" s="9">
         <v>1187000000</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="9" t="s">
+      <c r="A178" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="8" t="s">
         <v>582</v>
       </c>
       <c r="C178">
@@ -6948,10 +6914,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="8" t="s">
         <v>584</v>
       </c>
       <c r="C179">
@@ -6959,10 +6925,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="9" t="s">
+      <c r="A180" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="8" t="s">
         <v>586</v>
       </c>
       <c r="C180">
@@ -6970,10 +6936,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="8" t="s">
         <v>588</v>
       </c>
       <c r="C181">
@@ -6981,10 +6947,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="8" t="s">
         <v>590</v>
       </c>
       <c r="C182">
@@ -6992,10 +6958,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="8" t="s">
         <v>592</v>
       </c>
       <c r="C183">
@@ -7003,10 +6969,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="8" t="s">
         <v>594</v>
       </c>
       <c r="C184">
@@ -7014,10 +6980,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="8" t="s">
         <v>596</v>
       </c>
       <c r="C185">
@@ -7025,10 +6991,10 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="8" t="s">
         <v>598</v>
       </c>
       <c r="C186">
@@ -7036,10 +7002,10 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="8" t="s">
         <v>600</v>
       </c>
       <c r="C187">
@@ -7047,10 +7013,10 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="9" t="s">
+      <c r="A188" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="8" t="s">
         <v>602</v>
       </c>
       <c r="C188">
@@ -7058,10 +7024,10 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="8" t="s">
         <v>604</v>
       </c>
       <c r="C189">
@@ -7069,10 +7035,10 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="9" t="s">
+      <c r="A190" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="8" t="s">
         <v>606</v>
       </c>
       <c r="C190">
@@ -7080,10 +7046,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="8" t="s">
         <v>608</v>
       </c>
       <c r="C191">
@@ -7091,10 +7057,10 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="9" t="s">
+      <c r="A192" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="8" t="s">
         <v>610</v>
       </c>
       <c r="C192">
@@ -7102,10 +7068,10 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="9" t="s">
+      <c r="A193" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="8" t="s">
         <v>612</v>
       </c>
       <c r="C193">
@@ -7113,10 +7079,10 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="9" t="s">
+      <c r="A194" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="8" t="s">
         <v>614</v>
       </c>
       <c r="C194">
@@ -7124,10 +7090,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="8" t="s">
         <v>616</v>
       </c>
       <c r="C195">
@@ -7135,10 +7101,10 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196" s="9" t="s">
+      <c r="A196" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="8" t="s">
         <v>618</v>
       </c>
       <c r="C196">
@@ -7146,10 +7112,10 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="8" t="s">
         <v>620</v>
       </c>
       <c r="C197">
@@ -7157,10 +7123,10 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="8" t="s">
         <v>622</v>
       </c>
       <c r="C198">
@@ -7168,10 +7134,10 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="8" t="s">
         <v>624</v>
       </c>
       <c r="C199">
@@ -7179,10 +7145,10 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="8" t="s">
         <v>626</v>
       </c>
       <c r="C200">
@@ -7190,10 +7156,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="8" t="s">
         <v>628</v>
       </c>
       <c r="C201">
@@ -7201,10 +7167,10 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="9" t="s">
+      <c r="A202" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>630</v>
       </c>
       <c r="C202">
@@ -7212,10 +7178,10 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="8" t="s">
         <v>632</v>
       </c>
       <c r="C203">
@@ -7223,10 +7189,10 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" s="9" t="s">
+      <c r="A204" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="8" t="s">
         <v>634</v>
       </c>
       <c r="C204">
@@ -7234,10 +7200,10 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>636</v>
       </c>
       <c r="C205">
@@ -7245,10 +7211,10 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>638</v>
       </c>
       <c r="C206">
@@ -7256,10 +7222,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="8" t="s">
         <v>640</v>
       </c>
       <c r="C207">
@@ -7267,10 +7233,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208" s="9" t="s">
+      <c r="A208" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="8" t="s">
         <v>642</v>
       </c>
       <c r="C208">
@@ -7278,10 +7244,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="8" t="s">
         <v>644</v>
       </c>
       <c r="C209">
@@ -7289,21 +7255,21 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="C210" s="10">
+      <c r="C210" s="9">
         <v>2041820000</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="8" t="s">
         <v>647</v>
       </c>
       <c r="C211">
@@ -7311,10 +7277,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="8" t="s">
         <v>649</v>
       </c>
       <c r="C212">
@@ -7322,10 +7288,10 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="8" t="s">
         <v>651</v>
       </c>
       <c r="C213">
@@ -7333,10 +7299,10 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="8" t="s">
         <v>653</v>
       </c>
       <c r="C214">
@@ -7344,10 +7310,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215" s="9" t="s">
+      <c r="A215" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="8" t="s">
         <v>655</v>
       </c>
       <c r="C215">
@@ -7355,21 +7321,21 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="C216" s="10">
+      <c r="C216" s="9">
         <v>65000000000</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>659</v>
       </c>
       <c r="C217">
@@ -7377,32 +7343,32 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A218" s="9" t="s">
+      <c r="A218" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="C218" s="10">
+      <c r="C218" s="9">
         <v>880000000</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219" s="9" t="s">
+      <c r="A219" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="C219" s="10">
+      <c r="C219" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="8" t="s">
         <v>665</v>
       </c>
       <c r="C220">
@@ -7410,21 +7376,21 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C221" s="10">
+      <c r="C221" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A222" s="9" t="s">
+      <c r="A222" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="8" t="s">
         <v>669</v>
       </c>
       <c r="C222">
@@ -7432,10 +7398,10 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A223" s="9" t="s">
+      <c r="A223" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="8" t="s">
         <v>671</v>
       </c>
       <c r="C223">
@@ -7443,10 +7409,10 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="8" t="s">
         <v>673</v>
       </c>
       <c r="C224">
@@ -7454,10 +7420,10 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="8" t="s">
         <v>675</v>
       </c>
       <c r="C225">
@@ -7465,10 +7431,10 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="8" t="s">
         <v>677</v>
       </c>
       <c r="C226">
@@ -7476,10 +7442,10 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="8" t="s">
         <v>679</v>
       </c>
       <c r="C227">
@@ -7487,10 +7453,10 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="8" t="s">
         <v>681</v>
       </c>
       <c r="C228">
@@ -7498,10 +7464,10 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="8" t="s">
         <v>683</v>
       </c>
       <c r="C229">
@@ -7509,10 +7475,10 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A230" s="9" t="s">
+      <c r="A230" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="8" t="s">
         <v>685</v>
       </c>
       <c r="C230">
@@ -7520,10 +7486,10 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="8" t="s">
         <v>687</v>
       </c>
       <c r="C231">
@@ -7531,10 +7497,10 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="9" t="s">
+      <c r="A232" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="8" t="s">
         <v>689</v>
       </c>
       <c r="C232">
@@ -7542,10 +7508,10 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="8" t="s">
         <v>691</v>
       </c>
       <c r="C233">
@@ -7553,10 +7519,10 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="8" t="s">
         <v>693</v>
       </c>
       <c r="C234">
@@ -7564,10 +7530,10 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="8" t="s">
         <v>695</v>
       </c>
       <c r="C235">
@@ -7575,10 +7541,10 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A236" s="9" t="s">
+      <c r="A236" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="8" t="s">
         <v>697</v>
       </c>
       <c r="C236">
@@ -7586,10 +7552,10 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="8" t="s">
         <v>699</v>
       </c>
       <c r="C237">
@@ -7597,10 +7563,10 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="8" t="s">
         <v>701</v>
       </c>
       <c r="C238">
@@ -7608,10 +7574,10 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="8" t="s">
         <v>703</v>
       </c>
       <c r="C239">
@@ -7619,10 +7585,10 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="8" t="s">
         <v>705</v>
       </c>
       <c r="C240">
@@ -7630,21 +7596,21 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A241" s="9" t="s">
+      <c r="A241" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="C241" s="10">
+      <c r="C241" s="9">
         <v>26190732</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="8" t="s">
         <v>709</v>
       </c>
       <c r="C242">
@@ -7652,10 +7618,10 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A243" s="9" t="s">
+      <c r="A243" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="8" t="s">
         <v>711</v>
       </c>
       <c r="C243">
@@ -7663,10 +7629,10 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="8" t="s">
         <v>713</v>
       </c>
       <c r="C244">
@@ -7674,10 +7640,10 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="8" t="s">
         <v>715</v>
       </c>
       <c r="C245">
@@ -7685,21 +7651,21 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A246" s="9" t="s">
+      <c r="A246" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="C246" s="10">
+      <c r="C246" s="9">
         <v>374536000</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="8" t="s">
         <v>718</v>
       </c>
       <c r="C247">
@@ -7707,10 +7673,10 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A248" s="9" t="s">
+      <c r="A248" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="8" t="s">
         <v>720</v>
       </c>
       <c r="C248">
@@ -7718,10 +7684,10 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="8" t="s">
         <v>722</v>
       </c>
       <c r="C249">
@@ -7729,10 +7695,10 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A250" s="9" t="s">
+      <c r="A250" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="8" t="s">
         <v>724</v>
       </c>
       <c r="C250">
@@ -7740,10 +7706,10 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="8" t="s">
         <v>726</v>
       </c>
       <c r="C251">
@@ -7751,10 +7717,10 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A252" s="9" t="s">
+      <c r="A252" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="8" t="s">
         <v>728</v>
       </c>
       <c r="C252">
@@ -7762,10 +7728,10 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="8" t="s">
         <v>730</v>
       </c>
       <c r="C253">
@@ -7773,10 +7739,10 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A254" s="9" t="s">
+      <c r="A254" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="8" t="s">
         <v>732</v>
       </c>
       <c r="C254">
@@ -7784,10 +7750,10 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A255" s="9" t="s">
+      <c r="A255" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="8" t="s">
         <v>734</v>
       </c>
       <c r="C255">
@@ -7795,10 +7761,10 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A256" s="9" t="s">
+      <c r="A256" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="8" t="s">
         <v>736</v>
       </c>
       <c r="C256">
@@ -7806,10 +7772,10 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="8" t="s">
         <v>738</v>
       </c>
       <c r="C257">
@@ -7817,10 +7783,10 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258" s="9" t="s">
+      <c r="A258" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="8" t="s">
         <v>740</v>
       </c>
       <c r="C258">
@@ -7828,10 +7794,10 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="8" t="s">
         <v>742</v>
       </c>
       <c r="C259">
@@ -7839,10 +7805,10 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A260" s="9" t="s">
+      <c r="A260" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="8" t="s">
         <v>744</v>
       </c>
       <c r="C260">
@@ -7850,10 +7816,10 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="8" t="s">
         <v>746</v>
       </c>
       <c r="C261">
@@ -7861,10 +7827,10 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A262" s="9" t="s">
+      <c r="A262" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B262" s="8" t="s">
         <v>748</v>
       </c>
       <c r="C262">
@@ -7872,10 +7838,10 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="8" t="s">
         <v>750</v>
       </c>
       <c r="C263">
@@ -7883,21 +7849,21 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A264" s="9" t="s">
+      <c r="A264" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B264" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="C264" s="10">
+      <c r="C264" s="9">
         <v>48072096175</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="8" t="s">
         <v>851</v>
       </c>
       <c r="C265">
@@ -7905,10 +7871,10 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="8" t="s">
         <v>852</v>
       </c>
       <c r="C266">
@@ -7916,10 +7882,10 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A267" s="9" t="s">
+      <c r="A267" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="B267" s="8" t="s">
         <v>755</v>
       </c>
       <c r="C267">
@@ -7927,10 +7893,10 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A268" s="9" t="s">
+      <c r="A268" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="8" t="s">
         <v>757</v>
       </c>
       <c r="C268">
@@ -7938,10 +7904,10 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A269" s="9" t="s">
+      <c r="A269" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="8" t="s">
         <v>759</v>
       </c>
       <c r="C269">
@@ -7949,10 +7915,10 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="8" t="s">
         <v>761</v>
       </c>
       <c r="C270">
@@ -7960,10 +7926,10 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A271" s="9" t="s">
+      <c r="A271" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="8" t="s">
         <v>763</v>
       </c>
       <c r="C271">
@@ -7971,10 +7937,10 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A272" s="9" t="s">
+      <c r="A272" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" s="8" t="s">
         <v>765</v>
       </c>
       <c r="C272">
@@ -7982,10 +7948,10 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A273" s="9" t="s">
+      <c r="A273" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="B273" s="9" t="s">
+      <c r="B273" s="8" t="s">
         <v>767</v>
       </c>
       <c r="C273">
@@ -7993,10 +7959,10 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A274" s="9" t="s">
+      <c r="A274" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B274" s="8" t="s">
         <v>769</v>
       </c>
       <c r="C274">
@@ -8004,10 +7970,10 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A275" s="9" t="s">
+      <c r="A275" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="8" t="s">
         <v>771</v>
       </c>
       <c r="C275">
@@ -8015,10 +7981,10 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A276" s="9" t="s">
+      <c r="A276" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B276" s="8" t="s">
         <v>773</v>
       </c>
       <c r="C276">
@@ -8026,10 +7992,10 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A277" s="9" t="s">
+      <c r="A277" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="8" t="s">
         <v>775</v>
       </c>
       <c r="C277">
@@ -8037,21 +8003,21 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A278" s="9" t="s">
+      <c r="A278" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C278" s="10">
+      <c r="C278" s="9">
         <v>-25000000</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="B279" s="8" t="s">
         <v>778</v>
       </c>
       <c r="C279">
@@ -8059,10 +8025,10 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A280" s="9" t="s">
+      <c r="A280" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="B280" s="8" t="s">
         <v>780</v>
       </c>
       <c r="C280">
@@ -8070,10 +8036,10 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B281" s="8" t="s">
         <v>782</v>
       </c>
       <c r="C281">
@@ -8081,10 +8047,10 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A282" s="9" t="s">
+      <c r="A282" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B282" s="8" t="s">
         <v>784</v>
       </c>
       <c r="C282">
@@ -8092,10 +8058,10 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A283" s="9" t="s">
+      <c r="A283" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="8" t="s">
         <v>786</v>
       </c>
       <c r="C283">
@@ -8103,10 +8069,10 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A284" s="9" t="s">
+      <c r="A284" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B284" s="8" t="s">
         <v>788</v>
       </c>
       <c r="C284">
@@ -8114,10 +8080,10 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B285" s="8" t="s">
         <v>790</v>
       </c>
       <c r="C285">
@@ -8125,10 +8091,10 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A286" s="9" t="s">
+      <c r="A286" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="8" t="s">
         <v>792</v>
       </c>
       <c r="C286">
@@ -8136,10 +8102,10 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A287" s="9" t="s">
+      <c r="A287" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B287" s="8" t="s">
         <v>794</v>
       </c>
       <c r="C287">
@@ -8147,10 +8113,10 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288" s="9" t="s">
+      <c r="A288" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="B288" s="8" t="s">
         <v>796</v>
       </c>
       <c r="C288">
@@ -8158,10 +8124,10 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A289" s="9" t="s">
+      <c r="A289" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="B289" s="8" t="s">
         <v>798</v>
       </c>
       <c r="C289">
@@ -8169,10 +8135,10 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" s="9" t="s">
+      <c r="A290" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="8" t="s">
         <v>800</v>
       </c>
       <c r="C290">
@@ -8180,10 +8146,10 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A291" s="9" t="s">
+      <c r="A291" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="8" t="s">
         <v>802</v>
       </c>
       <c r="C291">
@@ -8191,10 +8157,10 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="8" t="s">
         <v>804</v>
       </c>
       <c r="C292">
@@ -8202,10 +8168,10 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="8" t="s">
         <v>806</v>
       </c>
       <c r="C293">
@@ -8213,10 +8179,10 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A294" s="9" t="s">
+      <c r="A294" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="B294" s="9" t="s">
+      <c r="B294" s="8" t="s">
         <v>808</v>
       </c>
       <c r="C294">
@@ -8224,10 +8190,10 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A295" s="9" t="s">
+      <c r="A295" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="B295" s="9" t="s">
+      <c r="B295" s="8" t="s">
         <v>667</v>
       </c>
       <c r="C295">
@@ -8235,10 +8201,10 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A296" s="9" t="s">
+      <c r="A296" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B296" s="8" t="s">
         <v>669</v>
       </c>
       <c r="C296">
@@ -8246,10 +8212,10 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A297" s="9" t="s">
+      <c r="A297" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="8" t="s">
         <v>812</v>
       </c>
       <c r="C297">
@@ -8257,10 +8223,10 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" s="9" t="s">
+      <c r="A298" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B298" s="8" t="s">
         <v>814</v>
       </c>
       <c r="C298">
@@ -8268,10 +8234,10 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A299" s="9" t="s">
+      <c r="A299" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="8" t="s">
         <v>816</v>
       </c>
       <c r="C299">
@@ -8279,21 +8245,21 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="9" t="s">
+      <c r="A300" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="B300" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="C300" s="10">
+      <c r="C300" s="9">
         <v>10140606400</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="8" t="s">
         <v>820</v>
       </c>
       <c r="C301">
@@ -8301,10 +8267,10 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A302" s="9" t="s">
+      <c r="A302" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="8" t="s">
         <v>822</v>
       </c>
       <c r="C302">
@@ -8312,10 +8278,10 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="9" t="s">
+      <c r="A303" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="8" t="s">
         <v>824</v>
       </c>
       <c r="C303">
@@ -8323,10 +8289,10 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A304" s="9" t="s">
+      <c r="A304" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B304" s="8" t="s">
         <v>826</v>
       </c>
       <c r="C304">
@@ -8334,10 +8300,10 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A305" s="9" t="s">
+      <c r="A305" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="8" t="s">
         <v>828</v>
       </c>
       <c r="C305">
@@ -8345,10 +8311,10 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A306" s="9" t="s">
+      <c r="A306" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B306" s="8" t="s">
         <v>830</v>
       </c>
       <c r="C306">
@@ -8356,21 +8322,21 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A307" s="9" t="s">
+      <c r="A307" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B307" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="C307" s="10">
+      <c r="C307" s="9">
         <v>-382394201</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" s="9" t="s">
+      <c r="A308" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B308" s="8" t="s">
         <v>834</v>
       </c>
       <c r="C308">
@@ -8378,32 +8344,32 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A309" s="9" t="s">
+      <c r="A309" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="8" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A310" s="9" t="s">
+      <c r="A310" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B310" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="C310" s="12">
+      <c r="C310" s="11">
         <v>20148144654</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A311" s="9" t="s">
+      <c r="A311" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="B311" s="9" t="s">
+      <c r="B311" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="C311" s="12">
+      <c r="C311" s="11">
         <v>21650053168</v>
       </c>
     </row>

--- a/모회사_FS.xlsx
+++ b/모회사_FS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhhye\OneDrive\문서\2025 Others\st_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hwan-Hee Hyeong\Documents\OneDrive\문서\2025 Others\st_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BSPL" sheetId="1" r:id="rId1"/>
@@ -3234,14 +3234,14 @@
       <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.2109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>8832005</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>21641221163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>71000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>13128202573</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>872058000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>548098300</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>777270942</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>2960000000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>711032953</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>756757177</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>1584159000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>24326661</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>1827691718</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>9366353115</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>12869946981</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>221</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>46083792032</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>16797456</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>4405317316</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>-653069981</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>847569412</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>28628497359</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>13950862248</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>-2742737822</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>540760000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>-532575662</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>284643354</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>-202948883</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>261614530</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>-204656811</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>409728427</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>-284195430</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>123076455</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>-18170962</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>59138000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>-52385624</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>790336000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>2663953</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>1343750962</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>136097111</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>745171040</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>243087124</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>880000000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>3886691487</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>277323799</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>80751665</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>10650929912</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>558511591</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>350145210</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>479143523</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>20000000000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>9207131329</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>-9207131329</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>124549820</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>2535151600</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>90107442400</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>12353133580</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>1959821067</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>89699816538</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>10143558450</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>3217766013</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>141000000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>4916655502</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>1616360114</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>1785784316</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>90581841</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>93203318</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>255042825</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>84759032</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>43170481</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>11497253</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>1100052</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>24185881</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>10178486</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>242433438</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>8267625</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>10658749</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>3661757</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>2623673372</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>63600796</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>668052</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>10448688</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>19699966</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>472763182</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>82923640</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>-38147983</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>19089017</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>909043084</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>2303727457</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>234000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>49081857</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>338338606</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>96116408</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>640510880</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>25218622</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>354060404</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>41820000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>887035847</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>30525211</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>62265864</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>793559619</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
@@ -4493,17 +4493,17 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="9" width="17.85546875" customWidth="1"/>
+    <col min="4" max="9" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>162</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>868</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>853</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>861</v>
       </c>
@@ -4591,14 +4591,20 @@
       <c r="C4" s="16" t="s">
         <v>876</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6">
+        <v>2923626500</v>
+      </c>
+      <c r="E4" s="6">
+        <v>55731835040</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6">
+        <v>52256534162.000008</v>
+      </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>860</v>
       </c>
@@ -4615,7 +4621,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>863</v>
       </c>
@@ -4634,7 +4640,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>863</v>
       </c>
@@ -4654,7 +4660,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>861</v>
       </c>
@@ -4677,7 +4683,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>860</v>
       </c>
@@ -4694,7 +4700,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>860</v>
       </c>
@@ -4711,7 +4717,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>860</v>
       </c>
@@ -4728,7 +4734,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>861</v>
       </c>
@@ -4745,7 +4751,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>863</v>
       </c>
@@ -4762,7 +4768,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>863</v>
       </c>
@@ -4779,7 +4785,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>860</v>
       </c>
@@ -4796,7 +4802,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>863</v>
       </c>
@@ -4813,7 +4819,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>863</v>
       </c>
@@ -4830,7 +4836,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>861</v>
       </c>
@@ -4847,7 +4853,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>863</v>
       </c>
@@ -4866,7 +4872,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>861</v>
       </c>
@@ -4883,7 +4889,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>860</v>
       </c>
@@ -4900,7 +4906,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>861</v>
       </c>
@@ -4917,7 +4923,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>863</v>
       </c>
@@ -4947,15 +4953,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="14.75" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>842</v>
       </c>
@@ -4966,7 +4972,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>243</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>1101188547</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>245</v>
       </c>
@@ -4988,7 +4994,7 @@
         <v>371637726</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>246</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>248</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>19089017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>250</v>
       </c>
@@ -5021,7 +5027,7 @@
         <v>251330743</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>251</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>253</v>
       </c>
@@ -5043,7 +5049,7 @@
         <v>793559619</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>254</v>
       </c>
@@ -5054,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>256</v>
       </c>
@@ -5065,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>258</v>
       </c>
@@ -5076,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>260</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>262</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>264</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>265</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>267</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>269</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>271</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>273</v>
       </c>
@@ -5164,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>275</v>
       </c>
@@ -5175,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>277</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>279</v>
       </c>
@@ -5197,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>281</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>283</v>
       </c>
@@ -5219,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>285</v>
       </c>
@@ -5230,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>287</v>
       </c>
@@ -5241,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>289</v>
       </c>
@@ -5252,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>291</v>
       </c>
@@ -5263,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>293</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>295</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>297</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>299</v>
       </c>
@@ -5307,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>301</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>303</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>305</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>307</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>309</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>310</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>312</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>314</v>
       </c>
@@ -5395,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>316</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>-38147983</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>318</v>
       </c>
@@ -5417,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>320</v>
       </c>
@@ -5428,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>322</v>
       </c>
@@ -5439,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>324</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>-69524133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>326</v>
       </c>
@@ -5461,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>328</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>330</v>
       </c>
@@ -5483,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>332</v>
       </c>
@@ -5494,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>334</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>335</v>
       </c>
@@ -5516,7 +5522,7 @@
         <v>354060404</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>336</v>
       </c>
@@ -5527,7 +5533,7 @@
         <v>288114317</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>337</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>339</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>341</v>
       </c>
@@ -5560,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>343</v>
       </c>
@@ -5571,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>345</v>
       </c>
@@ -5582,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>347</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>349</v>
       </c>
@@ -5604,7 +5610,7 @@
         <v>41820000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>351</v>
       </c>
@@ -5615,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>353</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>25218622</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>354</v>
       </c>
@@ -5637,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>356</v>
       </c>
@@ -5648,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>358</v>
       </c>
@@ -5659,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>360</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>362</v>
       </c>
@@ -5681,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>364</v>
       </c>
@@ -5692,7 +5698,7 @@
         <v>-887035847</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>366</v>
       </c>
@@ -5703,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>368</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>370</v>
       </c>
@@ -5725,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>372</v>
       </c>
@@ -5736,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>374</v>
       </c>
@@ -5747,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>376</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>338338606</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>378</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>380</v>
       </c>
@@ -5780,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>382</v>
       </c>
@@ -5791,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>384</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>386</v>
       </c>
@@ -5813,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>388</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>390</v>
       </c>
@@ -5835,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>392</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>394</v>
       </c>
@@ -5857,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>396</v>
       </c>
@@ -5868,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>398</v>
       </c>
@@ -5879,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>400</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>402</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>404</v>
       </c>
@@ -5912,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>406</v>
       </c>
@@ -5923,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>408</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>410</v>
       </c>
@@ -5945,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>412</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>414</v>
       </c>
@@ -5967,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>416</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>418</v>
       </c>
@@ -5989,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>420</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>422</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>2303727457</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>423</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>425</v>
       </c>
@@ -6033,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>427</v>
       </c>
@@ -6044,7 +6050,7 @@
         <v>49081857</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>428</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>429</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>430</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>432</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>434</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>436</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>438</v>
       </c>
@@ -6121,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>440</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>442</v>
       </c>
@@ -6143,7 +6149,7 @@
         <v>-709461461</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>444</v>
       </c>
@@ -6154,7 +6160,7 @@
         <v>116062667</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>446</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>448</v>
       </c>
@@ -6176,7 +6182,7 @@
         <v>-691815072</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>450</v>
       </c>
@@ -6187,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>452</v>
       </c>
@@ -6198,7 +6204,7 @@
         <v>-16016763</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>454</v>
       </c>
@@ -6209,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>456</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>458</v>
       </c>
@@ -6231,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>460</v>
       </c>
@@ -6242,7 +6248,7 @@
         <v>-5826947051</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>462</v>
       </c>
@@ -6253,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>464</v>
       </c>
@@ -6264,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>466</v>
       </c>
@@ -6275,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>468</v>
       </c>
@@ -6286,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>470</v>
       </c>
@@ -6297,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>472</v>
       </c>
@@ -6308,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>474</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>476</v>
       </c>
@@ -6330,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>478</v>
       </c>
@@ -6341,7 +6347,7 @@
         <v>2580365141</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>480</v>
       </c>
@@ -6352,7 +6358,7 @@
         <v>10007084537</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>482</v>
       </c>
@@ -6363,7 +6369,7 @@
         <v>-85499010</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>484</v>
       </c>
@@ -6374,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>486</v>
       </c>
@@ -6385,7 +6391,7 @@
         <v>170282056</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>488</v>
       </c>
@@ -6396,7 +6402,7 @@
         <v>28646639</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>490</v>
       </c>
@@ -6407,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>492</v>
       </c>
@@ -6418,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>494</v>
       </c>
@@ -6429,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>496</v>
       </c>
@@ -6440,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>498</v>
       </c>
@@ -6451,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>500</v>
       </c>
@@ -6462,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>502</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>453608635</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>504</v>
       </c>
@@ -6484,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>506</v>
       </c>
@@ -6495,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>508</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>510</v>
       </c>
@@ -6517,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>512</v>
       </c>
@@ -6528,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>514</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>-453608635</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>516</v>
       </c>
@@ -6550,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>518</v>
       </c>
@@ -6561,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>520</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>522</v>
       </c>
@@ -6583,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>524</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>526</v>
       </c>
@@ -6605,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>528</v>
       </c>
@@ -6616,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>530</v>
       </c>
@@ -6627,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>532</v>
       </c>
@@ -6638,7 +6644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>534</v>
       </c>
@@ -6649,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>536</v>
       </c>
@@ -6660,7 +6666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>538</v>
       </c>
@@ -6671,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>540</v>
       </c>
@@ -6682,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>542</v>
       </c>
@@ -6693,7 +6699,7 @@
         <v>6751985480</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>544</v>
       </c>
@@ -6704,7 +6710,7 @@
         <v>-354060404</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>546</v>
       </c>
@@ -6715,7 +6721,7 @@
         <v>-1078587124</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>548</v>
       </c>
@@ -6726,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>550</v>
       </c>
@@ -6737,7 +6743,7 @@
         <v>108100000</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>552</v>
       </c>
@@ -6748,7 +6754,7 @@
         <v>110880000000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>554</v>
       </c>
@@ -6759,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>556</v>
       </c>
@@ -6770,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>558</v>
       </c>
@@ -6781,7 +6787,7 @@
         <v>7788825</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>560</v>
       </c>
@@ -6792,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>848</v>
       </c>
@@ -6803,7 +6809,7 @@
         <v>2186000</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>563</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
         <v>565</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>567</v>
       </c>
@@ -6836,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>569</v>
       </c>
@@ -6847,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>571</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>573</v>
       </c>
@@ -6869,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
         <v>575</v>
       </c>
@@ -6880,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>577</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>579</v>
       </c>
@@ -6902,7 +6908,7 @@
         <v>1187000000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>581</v>
       </c>
@@ -6913,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>583</v>
       </c>
@@ -6924,7 +6930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>585</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>587</v>
       </c>
@@ -6946,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>589</v>
       </c>
@@ -6957,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>591</v>
       </c>
@@ -6968,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>593</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>595</v>
       </c>
@@ -6990,7 +6996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
         <v>597</v>
       </c>
@@ -7001,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>599</v>
       </c>
@@ -7012,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>601</v>
       </c>
@@ -7023,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>603</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>605</v>
       </c>
@@ -7045,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>607</v>
       </c>
@@ -7056,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
         <v>609</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>611</v>
       </c>
@@ -7078,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
         <v>613</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
         <v>615</v>
       </c>
@@ -7100,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
         <v>617</v>
       </c>
@@ -7111,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
         <v>619</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>621</v>
       </c>
@@ -7133,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
         <v>623</v>
       </c>
@@ -7144,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
         <v>625</v>
       </c>
@@ -7155,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>627</v>
       </c>
@@ -7166,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
         <v>629</v>
       </c>
@@ -7177,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
         <v>631</v>
       </c>
@@ -7188,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="s">
         <v>633</v>
       </c>
@@ -7199,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
         <v>635</v>
       </c>
@@ -7210,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
         <v>637</v>
       </c>
@@ -7221,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
         <v>639</v>
       </c>
@@ -7232,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
         <v>641</v>
       </c>
@@ -7243,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
         <v>643</v>
       </c>
@@ -7254,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
         <v>645</v>
       </c>
@@ -7265,7 +7271,7 @@
         <v>2041820000</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
         <v>646</v>
       </c>
@@ -7276,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
         <v>648</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
         <v>650</v>
       </c>
@@ -7298,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
         <v>652</v>
       </c>
@@ -7309,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
         <v>654</v>
       </c>
@@ -7320,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
         <v>656</v>
       </c>
@@ -7331,7 +7337,7 @@
         <v>65000000000</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>658</v>
       </c>
@@ -7342,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="s">
         <v>660</v>
       </c>
@@ -7353,7 +7359,7 @@
         <v>880000000</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
         <v>662</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
         <v>664</v>
       </c>
@@ -7375,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
         <v>666</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
         <v>668</v>
       </c>
@@ -7397,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
         <v>670</v>
       </c>
@@ -7408,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
         <v>672</v>
       </c>
@@ -7419,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
         <v>674</v>
       </c>
@@ -7430,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
         <v>676</v>
       </c>
@@ -7441,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
         <v>678</v>
       </c>
@@ -7452,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
         <v>680</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>682</v>
       </c>
@@ -7474,7 +7480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>684</v>
       </c>
@@ -7485,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
         <v>686</v>
       </c>
@@ -7496,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
         <v>688</v>
       </c>
@@ -7507,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
         <v>690</v>
       </c>
@@ -7518,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
         <v>692</v>
       </c>
@@ -7529,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
         <v>694</v>
       </c>
@@ -7540,7 +7546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
         <v>696</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
         <v>698</v>
       </c>
@@ -7562,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
         <v>700</v>
       </c>
@@ -7573,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
         <v>702</v>
       </c>
@@ -7584,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
         <v>704</v>
       </c>
@@ -7595,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>706</v>
       </c>
@@ -7606,7 +7612,7 @@
         <v>26190732</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
         <v>708</v>
       </c>
@@ -7617,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
         <v>710</v>
       </c>
@@ -7628,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>712</v>
       </c>
@@ -7639,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>714</v>
       </c>
@@ -7650,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
         <v>716</v>
       </c>
@@ -7661,7 +7667,7 @@
         <v>374536000</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
         <v>717</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
         <v>719</v>
       </c>
@@ -7683,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
         <v>721</v>
       </c>
@@ -7694,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
         <v>723</v>
       </c>
@@ -7705,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
         <v>725</v>
       </c>
@@ -7716,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
         <v>727</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
         <v>729</v>
       </c>
@@ -7738,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
         <v>731</v>
       </c>
@@ -7749,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
         <v>733</v>
       </c>
@@ -7760,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
         <v>735</v>
       </c>
@@ -7771,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
         <v>737</v>
       </c>
@@ -7782,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
         <v>739</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
         <v>741</v>
       </c>
@@ -7804,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
         <v>743</v>
       </c>
@@ -7815,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
         <v>745</v>
       </c>
@@ -7826,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="8" t="s">
         <v>747</v>
       </c>
@@ -7837,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
         <v>749</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
         <v>751</v>
       </c>
@@ -7859,7 +7865,7 @@
         <v>48072096175</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>752</v>
       </c>
@@ -7870,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
         <v>753</v>
       </c>
@@ -7881,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
         <v>754</v>
       </c>
@@ -7892,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="8" t="s">
         <v>756</v>
       </c>
@@ -7903,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
         <v>758</v>
       </c>
@@ -7914,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
         <v>760</v>
       </c>
@@ -7925,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
         <v>762</v>
       </c>
@@ -7936,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
         <v>764</v>
       </c>
@@ -7947,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
         <v>766</v>
       </c>
@@ -7958,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
         <v>768</v>
       </c>
@@ -7969,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="8" t="s">
         <v>770</v>
       </c>
@@ -7980,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
         <v>772</v>
       </c>
@@ -7991,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="8" t="s">
         <v>774</v>
       </c>
@@ -8002,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
         <v>776</v>
       </c>
@@ -8013,7 +8019,7 @@
         <v>-25000000</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="8" t="s">
         <v>777</v>
       </c>
@@ -8024,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="s">
         <v>779</v>
       </c>
@@ -8035,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
         <v>781</v>
       </c>
@@ -8046,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="8" t="s">
         <v>783</v>
       </c>
@@ -8057,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="8" t="s">
         <v>785</v>
       </c>
@@ -8068,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
         <v>787</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="8" t="s">
         <v>789</v>
       </c>
@@ -8090,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="s">
         <v>791</v>
       </c>
@@ -8101,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
         <v>793</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
         <v>795</v>
       </c>
@@ -8123,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
         <v>797</v>
       </c>
@@ -8134,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
         <v>799</v>
       </c>
@@ -8145,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
         <v>801</v>
       </c>
@@ -8156,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
         <v>803</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
         <v>805</v>
       </c>
@@ -8178,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="s">
         <v>807</v>
       </c>
@@ -8189,7 +8195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
         <v>809</v>
       </c>
@@ -8200,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="s">
         <v>810</v>
       </c>
@@ -8211,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
         <v>811</v>
       </c>
@@ -8222,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
         <v>813</v>
       </c>
@@ -8233,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="8" t="s">
         <v>815</v>
       </c>
@@ -8244,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="s">
         <v>817</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>10140606400</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="8" t="s">
         <v>819</v>
       </c>
@@ -8266,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="8" t="s">
         <v>821</v>
       </c>
@@ -8277,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="8" t="s">
         <v>823</v>
       </c>
@@ -8288,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="s">
         <v>825</v>
       </c>
@@ -8299,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="8" t="s">
         <v>827</v>
       </c>
@@ -8310,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="8" t="s">
         <v>829</v>
       </c>
@@ -8321,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="8" t="s">
         <v>831</v>
       </c>
@@ -8332,7 +8338,7 @@
         <v>-382394201</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="8" t="s">
         <v>833</v>
       </c>
@@ -8343,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="8" t="s">
         <v>835</v>
       </c>
@@ -8351,7 +8357,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="8" t="s">
         <v>837</v>
       </c>
@@ -8362,7 +8368,7 @@
         <v>20148144654</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="8" t="s">
         <v>839</v>
       </c>
